--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26317,7 +26319,7 @@
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E2" t="n">
         <v>48378.33248915088</v>
@@ -26329,7 +26331,7 @@
         <v>48378.33248915088</v>
       </c>
       <c r="H2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
       <c r="I2" t="n">
         <v>48378.33248915088</v>
@@ -26341,7 +26343,7 @@
         <v>48378.33248915088</v>
       </c>
       <c r="L2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="M2" t="n">
         <v>48378.33248915088</v>
@@ -26350,10 +26352,10 @@
         <v>48378.33248915088</v>
       </c>
       <c r="O2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
     </row>
     <row r="3">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138397</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138397</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138404</v>
       </c>
       <c r="E6" t="n">
         <v>26876.8513828616</v>
@@ -26537,7 +26539,7 @@
         <v>26876.8513828616</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="I6" t="n">
         <v>26876.8513828616</v>
@@ -26549,7 +26551,7 @@
         <v>26876.8513828616</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="M6" t="n">
         <v>26876.8513828616</v>
@@ -26558,10 +26560,10 @@
         <v>26876.8513828616</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.6649337839</v>
+        <v>6119.711064518839</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915087</v>
@@ -26328,10 +26328,10 @@
         <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="H2" t="n">
         <v>48378.33248915088</v>
-      </c>
-      <c r="H2" t="n">
-        <v>48378.33248915089</v>
       </c>
       <c r="I2" t="n">
         <v>48378.33248915088</v>
@@ -26340,22 +26340,22 @@
         <v>48378.33248915088</v>
       </c>
       <c r="K2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="L2" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="M2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="O2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="P2" t="n">
         <v>48378.33248915088</v>
-      </c>
-      <c r="N2" t="n">
-        <v>48378.33248915088</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48378.33248915089</v>
-      </c>
-      <c r="P2" t="n">
-        <v>48378.33248915089</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138397</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138397</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138404</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="I6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282682</v>
       </c>
       <c r="M6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="N6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282682</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6119.711064518839</v>
+        <v>120204.5695468574</v>
       </c>
     </row>
     <row r="7">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="G2" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="H2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="I2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="J2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="K2" t="n">
         <v>48378.33248915088</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48378.33248915087</v>
       </c>
       <c r="L2" t="n">
         <v>48378.33248915087</v>
@@ -26349,10 +26349,10 @@
         <v>48378.33248915087</v>
       </c>
       <c r="N2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="O2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915088</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141874</v>
       </c>
       <c r="C6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141874</v>
       </c>
       <c r="D6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141874</v>
       </c>
       <c r="E6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="F6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="G6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="H6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="I6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="J6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="K6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="L6" t="n">
-        <v>11726.17741282682</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="M6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="N6" t="n">
-        <v>11726.17741282682</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="O6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="P6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
     </row>
   </sheetData>
